--- a/office/lama pembuatan aplikasi.xlsx
+++ b/office/lama pembuatan aplikasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\timestamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF8169-32CD-41F7-9741-16EFCC36CC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6354CFB-8BAF-449F-86D1-4B33A3B152FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -44,12 +44,21 @@
   <si>
     <t>Durasi (menit)</t>
   </si>
+  <si>
+    <t>Total Jam</t>
+  </si>
+  <si>
+    <t>Jam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,8 +66,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Adobe Fan Heiti Std B"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -68,6 +85,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -99,12 +122,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,9 +421,11 @@
     <col min="1" max="1" width="4.1796875" customWidth="1"/>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -409,7 +436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -420,7 +447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -430,8 +457,18 @@
       <c r="C3" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6">
+        <f>SUM(C2:C21)/60</f>
+        <v>2.8166666666666669</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -442,7 +479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -453,7 +490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -464,7 +501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -475,7 +512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -486,7 +523,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -497,7 +534,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -508,42 +545,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>45622</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -587,5 +628,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/office/lama pembuatan aplikasi.xlsx
+++ b/office/lama pembuatan aplikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6354CFB-8BAF-449F-86D1-4B33A3B152FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C519D-26D6-42D9-B669-8A4A40142CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -129,7 +129,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="F3" s="6">
         <f>SUM(C2:C21)/60</f>
-        <v>2.8166666666666669</v>
+        <v>3.3666666666666667</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -560,15 +560,23 @@
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="4">
+        <v>45624</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="B13" s="4">
+        <v>45626</v>
+      </c>
+      <c r="C13" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">

--- a/office/lama pembuatan aplikasi.xlsx
+++ b/office/lama pembuatan aplikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9C519D-26D6-42D9-B669-8A4A40142CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C498DFE-9D31-4A8F-B62B-65E9C35447B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="F3" s="6">
         <f>SUM(C2:C21)/60</f>
-        <v>3.3666666666666667</v>
+        <v>3.8166666666666669</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -582,15 +582,23 @@
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="4">
+        <v>45628</v>
+      </c>
+      <c r="C14" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="4">
+        <v>45628</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">

--- a/office/lama pembuatan aplikasi.xlsx
+++ b/office/lama pembuatan aplikasi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C498DFE-9D31-4A8F-B62B-65E9C35447B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7E54D-CC04-40DD-A390-A4264BDED961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,8 +412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="F3" s="6">
         <f>SUM(C2:C21)/60</f>
-        <v>3.8166666666666669</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -604,8 +604,12 @@
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="4">
+        <v>45630</v>
+      </c>
+      <c r="C16" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">

--- a/office/lama pembuatan aplikasi.xlsx
+++ b/office/lama pembuatan aplikasi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\myosidia\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\myosidia\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC7E54D-CC04-40DD-A390-A4264BDED961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEBEA5F-1250-4CBA-A0D6-870EFDD8DDD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -462,7 +462,7 @@
       </c>
       <c r="F3" s="6">
         <f>SUM(C2:C21)/60</f>
-        <v>4.166666666666667</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>4</v>
@@ -615,14 +615,20 @@
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="4">
+        <v>45667</v>
+      </c>
+      <c r="C17" s="1">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="4">
+        <v>45668</v>
+      </c>
       <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
